--- a/Producto Final/COMECA - MCU Board/Project Outputs for COMECA - MCU Board/COMECA - MCU Board.xlsx
+++ b/Producto Final/COMECA - MCU Board/Project Outputs for COMECA - MCU Board/COMECA - MCU Board.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo\Desktop\EasyMx Pro - COMECA\COMECA - MCU Board\Project Outputs for COMECA - MCU Board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo\Documents\GitHub\DisenioBJAM\Producto Final\COMECA - MCU Board\Project Outputs for COMECA - MCU Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB38E95C-A90A-42A8-B7D7-714A07B7F6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C45BADF-7DC6-434B-B3DB-19C2FBE6C4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{10152F68-D791-471E-81AA-1E65978B69FB}"/>
+    <workbookView xWindow="3516" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{885F08E1-9351-477B-8950-76B12E4ECDC5}"/>
   </bookViews>
   <sheets>
     <sheet name="COMECA - MCU Board" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>Comment</t>
   </si>
@@ -64,67 +65,85 @@
     <t/>
   </si>
   <si>
-    <t>C1, C2, C3, C4, C5, C6, C7, C8, C9</t>
+    <t>C1, C2, C3, C4, C5, C6, C7, C13, C14</t>
+  </si>
+  <si>
+    <t>0402-CAP-TDK</t>
+  </si>
+  <si>
+    <t>CAP-SMD</t>
+  </si>
+  <si>
+    <t>22pF</t>
+  </si>
+  <si>
+    <t>C10, C11</t>
   </si>
   <si>
     <t>0603-CAP-TDK</t>
   </si>
   <si>
-    <t>CAP-SMD</t>
-  </si>
-  <si>
-    <t>22pF</t>
-  </si>
-  <si>
-    <t>C10, C11</t>
-  </si>
-  <si>
     <t>2.2uF</t>
   </si>
   <si>
-    <t>C14, C15, C16</t>
-  </si>
-  <si>
-    <t>10uF/16V</t>
-  </si>
-  <si>
-    <t>E1, E2, E3, E4</t>
-  </si>
-  <si>
-    <t>1206-CAP-TDK</t>
-  </si>
-  <si>
-    <t>SIP13</t>
+    <t>C12, C15, C16</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>CE1, CE2, CE3, CE4</t>
+  </si>
+  <si>
+    <t>0805-CAP-TDK</t>
+  </si>
+  <si>
+    <t>120R@100MHz</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>0603-IND-MURATA</t>
+  </si>
+  <si>
+    <t>BLM18BD121SN1D</t>
+  </si>
+  <si>
+    <t>CON13X2</t>
   </si>
   <si>
     <t>J1, J2, J3, J4</t>
   </si>
   <si>
-    <t>SIP13*2</t>
-  </si>
-  <si>
-    <t>CON13*2</t>
+    <t>SIP13X2</t>
   </si>
   <si>
     <t>100K</t>
   </si>
   <si>
-    <t>R1, R2</t>
-  </si>
-  <si>
-    <t>0603-RES-PANASONIC</t>
+    <t>R1, R11</t>
+  </si>
+  <si>
+    <t>0402-RES-PANASONIC</t>
   </si>
   <si>
     <t>RES-SMD</t>
   </si>
   <si>
+    <t>12K1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
     <t>1K5</t>
   </si>
   <si>
     <t>R3</t>
   </si>
   <si>
-    <t>27R</t>
+    <t>27</t>
   </si>
   <si>
     <t>R4, R5, R6, R7, R8, R9</t>
@@ -134,12 +153,6 @@
   </si>
   <si>
     <t>R10</t>
-  </si>
-  <si>
-    <t>12K1</t>
-  </si>
-  <si>
-    <t>R11</t>
   </si>
   <si>
     <t>STM32F407VGT6</t>
@@ -545,8 +558,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD0BB1D-2A35-484E-9324-F3902055BE2F}">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F89844C-E4E1-4542-907F-38F303953F83}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,7 +619,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -617,16 +630,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -637,16 +650,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
@@ -657,42 +670,42 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -706,50 +719,50 @@
         <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F9" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -757,39 +770,39 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -797,19 +810,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -817,21 +830,41 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="1">
         <v>1</v>
       </c>
     </row>
